--- a/biology/Botanique/Vinaigre_de_xérès/Vinaigre_de_xérès.xlsx
+++ b/biology/Botanique/Vinaigre_de_xérès/Vinaigre_de_xérès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vinaigre_de_x%C3%A9r%C3%A8s</t>
+          <t>Vinaigre_de_xérès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dénomination (DO) vinaigre de xérès est l'appellation d'origine protégée (AOP) espagnole qui protège légalement le vieillissement et la commercialisation du vinaigre de xérès[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dénomination (DO) vinaigre de xérès est l'appellation d'origine protégée (AOP) espagnole qui protège légalement le vieillissement et la commercialisation du vinaigre de xérès. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vinaigre_de_x%C3%A9r%C3%A8s</t>
+          <t>Vinaigre_de_xérès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier enregistrement de l'utilisation commerciale de vins pour le vinaigre remonte à 1945, par Antonio Páez Lobato[2], chiffre reconnu par l'ensemble du secteur[3]. L'appellation d'origine (DO) a été légalement constituée en 1994 avec son Conseil régulateur pour réglementer le vieillissement et la commercialisation des vinaigres élaborés à partir de vins protégés par l'appellation d'origine Jerez-Xérès-Sherry, le premier vinaigre d'Espagne[4].
-Au niveau des entreprises, il existe l'Asociación Empresarial de Vinagres de Jerez (Asevijerez)[5]. Ces dernières années, les ventes de vinaigre n'ont cessé d'augmenter, dépassant les 5 millions de litres par an[6]. Cela menace de limiter temporairement la capacité de production[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier enregistrement de l'utilisation commerciale de vins pour le vinaigre remonte à 1945, par Antonio Páez Lobato, chiffre reconnu par l'ensemble du secteur. L'appellation d'origine (DO) a été légalement constituée en 1994 avec son Conseil régulateur pour réglementer le vieillissement et la commercialisation des vinaigres élaborés à partir de vins protégés par l'appellation d'origine Jerez-Xérès-Sherry, le premier vinaigre d'Espagne.
+Au niveau des entreprises, il existe l'Asociación Empresarial de Vinagres de Jerez (Asevijerez). Ces dernières années, les ventes de vinaigre n'ont cessé d'augmenter, dépassant les 5 millions de litres par an. Cela menace de limiter temporairement la capacité de production.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vinaigre_de_x%C3%A9r%C3%A8s</t>
+          <t>Vinaigre_de_xérès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Particularité unique du vinaigre de xérès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vinaigre de xérès est le seul au monde à contenir de l’alcool, à hauteur de 3 % au maximum[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vinaigre de xérès est le seul au monde à contenir de l’alcool, à hauteur de 3 % au maximum,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vinaigre_de_x%C3%A9r%C3%A8s</t>
+          <t>Vinaigre_de_xérès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Types de vinaigre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En fonction des périodes de vieillissement auxquelles les vinaigres protégés sont soumis dans des fûts de xérès[10], on peut distinguer les catégories suivantes :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En fonction des périodes de vieillissement auxquelles les vinaigres protégés sont soumis dans des fûts de xérès, on peut distinguer les catégories suivantes :
 Vinaigre de xérès : il s'agit du vinaigre couvert par cette appellation, soumis à une période de vieillissement minimale de six mois.
 Vinaigre de xérès Reserva : vinaigre de Xérès couvert par cette appellation, vieilli pendant au moins deux ans.
 Vinagre de Jerez Gran Reserva : vinaigre protégé par cette appellation, vieilli pendant un minimum de dix ans.</t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vinaigre_de_x%C3%A9r%C3%A8s</t>
+          <t>Vinaigre_de_xérès</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Dulces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une catégorie ajoutée en 2012, qui découle de l'ajout de vin Pedro ximénez ou Moscatel au vinaigre[11]. En 2018, la réglementation des vinaigres balsamiques a commencé[12], ce qui a été confirmé en 2020.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une catégorie ajoutée en 2012, qui découle de l'ajout de vin Pedro ximénez ou Moscatel au vinaigre. En 2018, la réglementation des vinaigres balsamiques a commencé, ce qui a été confirmé en 2020.
 </t>
         </is>
       </c>
